--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey-headed Albatross_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey-headed Albatross_Prince Edward Islands.xlsx
@@ -4291,13 +4291,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5662A961-50FD-417A-AD9F-83DAE89519F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F884CC9C-F0D7-4CCB-A33A-BBD461F408F3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828E9732-4C75-4C92-84D8-14B64D93885A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B36EEB5C-4C68-476E-A474-CFF6B90F3E29}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86578D6A-7766-4F59-8FEB-507773938179}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BF586C4-F9F8-4BAC-BA1B-DBB68EFC762B}"/>
 </file>